--- a/proveedores.xlsx
+++ b/proveedores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -210,13 +210,13 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -320,6 +320,24 @@
       </c>
       <c r="N2" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -328,7 +346,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
